--- a/7RMart/src/test/resources/Testdata.xlsx
+++ b/7RMart/src/test/resources/Testdata.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\Project_2\7RMart\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1296CF7E-09BD-438D-9AEA-04598A8275CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF188CE7-0F00-4677-BA23-9EA6BB031183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2A8B9F0-B123-450D-A719-5F4DE20E79D9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F2A8B9F0-B123-450D-A719-5F4DE20E79D9}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
-    <sheet name="managenews" sheetId="2" r:id="rId2"/>
+    <sheet name="adminuserupdatepage" sheetId="5" r:id="rId2"/>
+    <sheet name="managefootertextpage" sheetId="3" r:id="rId3"/>
+    <sheet name="managenewsupdatepage" sheetId="4" r:id="rId4"/>
+    <sheet name="managecontactpage" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -47,19 +50,101 @@
   </si>
   <si>
     <t>angel</t>
+  </si>
+  <si>
+    <t>userphone</t>
+  </si>
+  <si>
+    <t>useremail</t>
+  </si>
+  <si>
+    <t>useraddress</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>sony@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FlatNo.300 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3F7F5F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Trivandrum</t>
+    </r>
+  </si>
+  <si>
+    <t>1-2pm</t>
+  </si>
+  <si>
+    <t>FlatNo.300 Trivandrum</t>
+  </si>
+  <si>
+    <t>updatenews</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>adminusername</t>
+  </si>
+  <si>
+    <t>adminpassword</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Laptop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F7F5F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF3F7F5F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,8 +167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9C6C06-1DA6-4370-9C57-E80B03B42D8F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -452,15 +541,160 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FC7ED6-B3DB-4D92-97F9-2C4666786EA8}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7FBD54-E325-4623-9469-8BA586C624A1}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE08EF4E-94FD-447A-AA4A-FA7A1A9A46A8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2345654356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB32CFC2-3161-410E-92EC-BE97420060A0}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FC7ED6-B3DB-4D92-97F9-2C4666786EA8}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2345654356</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>